--- a/Tables/tables_performance_quality.xlsx
+++ b/Tables/tables_performance_quality.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/AIRE/Appendix/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C2DFBD1E69AF95CECFE0615CA456FE55149FE83C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390C77EA-0090-4817-886D-081935459758}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Specificity" sheetId="1" r:id="rId1"/>
-    <sheet name="Precision" sheetId="2" r:id="rId2"/>
-    <sheet name="Recall" sheetId="3" r:id="rId3"/>
+    <sheet name="Precision" sheetId="2" r:id="rId1"/>
+    <sheet name="Recall" sheetId="3" r:id="rId2"/>
+    <sheet name="Specificity" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -45,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -109,13 +118,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +170,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -221,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,35 +415,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -451,212 +470,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.982</v>
+        <v>0.876</v>
       </c>
       <c r="C4">
-        <v>0.014</v>
+        <v>0.188</v>
       </c>
       <c r="D4">
-        <v>0.929</v>
+        <v>0.878</v>
       </c>
       <c r="E4">
-        <v>0.031</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F4">
-        <v>0.513</v>
+        <v>0.748</v>
       </c>
       <c r="G4">
-        <v>0.28</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H4">
-        <v>0.931</v>
+        <v>0.88</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.97</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C5">
-        <v>0.019</v>
+        <v>0.104</v>
       </c>
       <c r="D5">
-        <v>0.962</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="E5">
-        <v>0.034</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F5">
-        <v>0.458</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G5">
-        <v>0.232</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H5">
-        <v>0.9379999999999999</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="I5">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9429999999999999</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C6">
-        <v>0.061</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D6">
-        <v>0.863</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E6">
-        <v>0.08500000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F6">
-        <v>0.438</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="G6">
-        <v>0.295</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H6">
-        <v>0.851</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="I6">
-        <v>0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.913</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C7">
-        <v>0.068</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>0.824</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E7">
-        <v>0.136</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F7">
-        <v>0.452</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="G7">
-        <v>0.33</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H7">
-        <v>0.788</v>
+        <v>0.875</v>
       </c>
       <c r="I7">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9360000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="C8">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.832</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E8">
-        <v>0.102</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
-        <v>0.437</v>
+        <v>0.71</v>
       </c>
       <c r="G8">
-        <v>0.303</v>
+        <v>0.112</v>
       </c>
       <c r="H8">
-        <v>0.819</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="I8">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.861</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="C9">
-        <v>0.092</v>
+        <v>0.11</v>
       </c>
       <c r="D9">
-        <v>0.827</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="E9">
-        <v>0.167</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F9">
-        <v>0.355</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G9">
-        <v>0.259</v>
+        <v>0.158</v>
       </c>
       <c r="H9">
-        <v>0.766</v>
+        <v>0.81</v>
       </c>
       <c r="I9">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.726</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C10">
-        <v>0.243</v>
+        <v>0.129</v>
       </c>
       <c r="D10">
-        <v>0.782</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="E10">
-        <v>0.18</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F10">
-        <v>0.361</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="G10">
-        <v>0.176</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="H10">
-        <v>0.665</v>
+        <v>0.78</v>
       </c>
       <c r="I10">
-        <v>0.284</v>
+        <v>0.124</v>
       </c>
     </row>
   </sheetData>
@@ -671,35 +690,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -726,212 +745,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.876</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C4">
-        <v>0.188</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D4">
-        <v>0.878</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="E4">
-        <v>0.142</v>
+        <v>0.248</v>
       </c>
       <c r="F4">
-        <v>0.748</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="G4">
-        <v>0.08799999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H4">
-        <v>0.88</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="I4">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.925</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C5">
-        <v>0.104</v>
+        <v>0.215</v>
       </c>
       <c r="D5">
-        <v>0.929</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E5">
-        <v>0.082</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="F5">
-        <v>0.715</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G5">
-        <v>0.08699999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>0.891</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="I5">
-        <v>0.141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.888</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C6">
-        <v>0.141</v>
+        <v>0.16</v>
       </c>
       <c r="D6">
-        <v>0.862</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E6">
-        <v>0.067</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F6">
-        <v>0.712</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="G6">
-        <v>0.08799999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="H6">
-        <v>0.855</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I6">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.902</v>
+        <v>0.497</v>
       </c>
       <c r="C7">
-        <v>0.057</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D7">
-        <v>0.863</v>
+        <v>0.62</v>
       </c>
       <c r="E7">
-        <v>0.043</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F7">
-        <v>0.734</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G7">
-        <v>0.063</v>
+        <v>0.108</v>
       </c>
       <c r="H7">
-        <v>0.875</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="I7">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.904</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D8">
-        <v>0.837</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.108</v>
       </c>
       <c r="F8">
-        <v>0.71</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G8">
-        <v>0.112</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H8">
-        <v>0.851</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="I8">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.849</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C9">
-        <v>0.11</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D9">
-        <v>0.848</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E9">
-        <v>0.08400000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F9">
-        <v>0.661</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="G9">
-        <v>0.158</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H9">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="I9">
-        <v>0.08599999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.783</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C10">
-        <v>0.129</v>
+        <v>0.182</v>
       </c>
       <c r="D10">
-        <v>0.834</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E10">
-        <v>0.068</v>
+        <v>0.11</v>
       </c>
       <c r="F10">
-        <v>0.664</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="G10">
-        <v>0.119</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H10">
-        <v>0.78</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="I10">
-        <v>0.124</v>
+        <v>0.152</v>
       </c>
     </row>
   </sheetData>
@@ -946,35 +965,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1001,212 +1022,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.325</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="C4">
-        <v>0.257</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D4">
-        <v>0.526</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="E4">
-        <v>0.248</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F4">
-        <v>0.887</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G4">
-        <v>0.134</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H4">
-        <v>0.553</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="I4">
-        <v>0.271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.469</v>
+        <v>0.97</v>
       </c>
       <c r="C5">
-        <v>0.215</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D5">
-        <v>0.492</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E5">
-        <v>0.204</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F5">
-        <v>0.868</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G5">
-        <v>0.052</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="H5">
-        <v>0.5620000000000001</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="I5">
-        <v>0.181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.476</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="C6">
-        <v>0.16</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>0.573</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E6">
-        <v>0.163</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F6">
-        <v>0.869</v>
+        <v>0.438</v>
       </c>
       <c r="G6">
-        <v>0.111</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H6">
-        <v>0.644</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="I6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.497</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="C7">
-        <v>0.174</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D7">
-        <v>0.62</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="E7">
-        <v>0.145</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F7">
-        <v>0.884</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="G7">
-        <v>0.108</v>
+        <v>0.33</v>
       </c>
       <c r="H7">
-        <v>0.695</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="I7">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.485</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C8">
-        <v>0.196</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D8">
-        <v>0.573</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="E8">
-        <v>0.108</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F8">
-        <v>0.863</v>
+        <v>0.437</v>
       </c>
       <c r="G8">
-        <v>0.131</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="H8">
-        <v>0.639</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="I8">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.591</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C9">
-        <v>0.162</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>0.5590000000000001</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="E9">
-        <v>0.08500000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F9">
-        <v>0.834</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="G9">
-        <v>0.134</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="H9">
-        <v>0.64</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="I9">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10">
-        <v>0.603</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C10">
-        <v>0.182</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D10">
-        <v>0.585</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E10">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="F10">
-        <v>0.847</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="G10">
-        <v>0.051</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="H10">
-        <v>0.696</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I10">
-        <v>0.152</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>
